--- a/Sprint-2/Sprint_2 Burndown-Backlog.xlsx
+++ b/Sprint-2/Sprint_2 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Adocao\adocao\Sprint-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao3\Sprint-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Breno Burndown" sheetId="4" r:id="rId4"/>
     <sheet name="Alexandre Burndown" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -74,34 +74,6 @@
   </si>
   <si>
     <t>(hrs)</t>
-  </si>
-  <si>
-    <t>Terça
-13/09/2016</t>
-  </si>
-  <si>
-    <t>Quarta
-14/09/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-15/09/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-16/09/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-17/09/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-18/09/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-19/09/2016</t>
   </si>
   <si>
     <t>Terça
@@ -217,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
@@ -620,6 +592,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,13 +619,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3836,7 +3808,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3899,7 +3871,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3915,35 +3887,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+20/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+21/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+22/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+23/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+24/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+25/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+26/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+27/09/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3985,7 +3957,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B25F-4BA6-B823-6B646DCDECAB}"/>
             </c:ext>
@@ -4032,7 +4004,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4048,35 +4020,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+20/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+21/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+22/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+23/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+24/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+25/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+26/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+27/09/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4118,7 +4090,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B25F-4BA6-B823-6B646DCDECAB}"/>
             </c:ext>
@@ -4186,6 +4158,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4276,6 +4249,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4320,6 +4294,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4347,7 +4322,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4400,7 +4375,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4486,7 +4461,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38B3-4059-8152-72407AF7869D}"/>
             </c:ext>
@@ -4533,7 +4508,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4619,7 +4594,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38B3-4059-8152-72407AF7869D}"/>
             </c:ext>
@@ -4851,7 +4826,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4904,7 +4879,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4990,7 +4965,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7027-4089-A471-E33CFB343F03}"/>
             </c:ext>
@@ -5037,7 +5012,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5123,7 +5098,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7027-4089-A471-E33CFB343F03}"/>
             </c:ext>
@@ -5355,7 +5330,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5408,7 +5383,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5494,7 +5469,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-52E3-40F9-BCD1-53B9BF061B4D}"/>
             </c:ext>
@@ -5541,7 +5516,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5627,7 +5602,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-52E3-40F9-BCD1-53B9BF061B4D}"/>
             </c:ext>
@@ -5695,7 +5670,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5786,7 +5760,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5831,7 +5804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5868,10 +5840,10 @@
       <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>158595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6001,7 +5973,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6039,7 +6011,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6111,7 +6083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6401,13 +6373,13 @@
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5">
         <v>5</v>
@@ -6448,10 +6420,10 @@
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>5</v>
@@ -6487,10 +6459,10 @@
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -6525,10 +6497,10 @@
     <row r="7" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="25">
         <v>4</v>
@@ -6563,10 +6535,10 @@
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="25">
         <v>5</v>
@@ -6601,10 +6573,10 @@
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" s="25">
         <v>0.5</v>
@@ -6641,10 +6613,10 @@
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="25">
         <v>2</v>
@@ -6681,10 +6653,10 @@
     <row r="11" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
@@ -6768,9 +6740,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6873,31 +6845,31 @@
         <v>15</v>
       </c>
       <c r="D3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="L3" s="42" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>24</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -6930,7 +6902,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="14">
         <f>SUM('Sprint Backlog'!D:D)</f>
@@ -6986,7 +6958,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14">
         <f>B5</f>
@@ -7063,13 +7035,13 @@
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -7090,7 +7062,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18">
         <f>B5/A3</f>
@@ -7146,7 +7118,7 @@
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="20">
         <f>'Danilo Burndown'!B9</f>
@@ -7202,7 +7174,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" s="20">
         <f>'Alexandre Burndown'!B9</f>
@@ -7213,40 +7185,40 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>'Alexandre Burndown'!D9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!D9</f>
+        <v>0.85</v>
       </c>
       <c r="E11" s="15">
-        <f>'Alexandre Burndown'!E9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!E9</f>
+        <v>1</v>
       </c>
       <c r="F11" s="15">
-        <f>'Alexandre Burndown'!F9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!F9</f>
+        <v>3.7</v>
       </c>
       <c r="G11" s="15">
-        <f>'Alexandre Burndown'!G9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!G9</f>
+        <v>1.3</v>
       </c>
       <c r="H11" s="15">
-        <f>'Alexandre Burndown'!H9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!H9</f>
+        <v>0.45</v>
       </c>
       <c r="I11" s="15">
-        <f>'Alexandre Burndown'!I9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!I9</f>
+        <v>0.3</v>
       </c>
       <c r="J11" s="15">
-        <f>'Alexandre Burndown'!J9</f>
-        <v>0</v>
+        <f>'Breno Burndown'!J9</f>
+        <v>0.8</v>
       </c>
       <c r="K11" s="15">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="L11" s="15">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -7258,51 +7230,51 @@
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B12" s="21">
         <f>'Breno Burndown'!B9</f>
         <v>1.4375</v>
       </c>
       <c r="C12" s="15">
-        <f>'Breno Burndown'!C9</f>
+        <f>'Alexandre Burndown'!C9</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>'Breno Burndown'!D9</f>
-        <v>0.85</v>
+        <f>'Alexandre Burndown'!D9</f>
+        <v>0</v>
       </c>
       <c r="E12" s="15">
-        <f>'Breno Burndown'!E9</f>
-        <v>1</v>
+        <f>'Alexandre Burndown'!E9</f>
+        <v>0</v>
       </c>
       <c r="F12" s="15">
-        <f>'Breno Burndown'!F9</f>
-        <v>3.7</v>
+        <f>'Alexandre Burndown'!F9</f>
+        <v>0</v>
       </c>
       <c r="G12" s="15">
-        <f>'Breno Burndown'!G9</f>
-        <v>1.3</v>
+        <f>'Alexandre Burndown'!G9</f>
+        <v>0</v>
       </c>
       <c r="H12" s="15">
-        <f>'Breno Burndown'!H9</f>
-        <v>0.45</v>
+        <f>'Alexandre Burndown'!H9</f>
+        <v>0</v>
       </c>
       <c r="I12" s="15">
-        <f>'Breno Burndown'!I9</f>
-        <v>0.3</v>
+        <f>'Alexandre Burndown'!I9</f>
+        <v>0</v>
       </c>
       <c r="J12" s="15">
-        <f>'Breno Burndown'!J9</f>
-        <v>0.8</v>
+        <f>'Alexandre Burndown'!J9</f>
+        <v>0</v>
       </c>
       <c r="K12" s="15">
         <f>SUM(C12:J12)</f>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
         <f>K12/A$3</f>
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -7311,6 +7283,9 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J13" s="30"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8348,7 +8323,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8360,9 +8335,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8379,7 +8354,7 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -8454,35 +8429,35 @@
       <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>55</v>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -8495,14 +8470,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="9"/>
@@ -8515,7 +8490,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="14">
         <v>17</v>
@@ -8570,7 +8545,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14">
         <f>B5</f>
@@ -8650,10 +8625,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -8674,7 +8649,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18">
         <f>B5/A3</f>
@@ -8729,10 +8704,10 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="46"/>
+      <c r="A10" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="48"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15">
         <v>2</v>
@@ -8754,18 +8729,18 @@
         <v>0.5</v>
       </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="48"/>
+      <c r="A11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="50"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15">
@@ -8787,18 +8762,18 @@
         <v>0.75</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="48"/>
+      <c r="A12" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="50"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -8818,18 +8793,18 @@
         <v>0.3125</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="51"/>
+      <c r="A13" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="53"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -8851,8 +8826,8 @@
         <v>0.4375</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -8864,6 +8839,15 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8877,16 +8861,7 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="16" priority="2">
@@ -8951,7 +8926,7 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -9026,35 +9001,35 @@
       <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>55</v>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -9067,14 +9042,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="9"/>
@@ -9087,7 +9062,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="14">
         <v>11.5</v>
@@ -9142,7 +9117,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14">
         <f>B5</f>
@@ -9222,10 +9197,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -9246,7 +9221,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18">
         <f>B5/A3</f>
@@ -9301,10 +9276,10 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="52"/>
+      <c r="A10" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="46"/>
       <c r="C10" s="28"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -9334,10 +9309,10 @@
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="51"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15">
         <v>0.85</v>
@@ -9365,10 +9340,10 @@
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15">
@@ -9396,10 +9371,10 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="52"/>
+      <c r="A13" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="46"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -9439,6 +9414,11 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9453,11 +9433,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -9514,7 +9489,7 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -9589,35 +9564,35 @@
       <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>55</v>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -9630,14 +9605,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="9"/>
@@ -9650,7 +9625,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="14">
         <f>SUMIF('Sprint Backlog'!C:C,"=Cicrano",'Sprint Backlog'!D:D)</f>
@@ -9706,7 +9681,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14">
         <f>B5</f>
@@ -9786,10 +9761,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -9810,7 +9785,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18">
         <f>B5/A3</f>
@@ -9865,8 +9840,8 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -9892,8 +9867,8 @@
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -9919,8 +9894,8 @@
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -9946,8 +9921,8 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -9978,6 +9953,11 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9992,11 +9972,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="4" priority="2">
